--- a/IPL/Royal Challengers Bangalore/Navdeep Saini .xlsx
+++ b/IPL/Royal Challengers Bangalore/Navdeep Saini .xlsx
@@ -408,10 +408,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C2" t="str">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="str">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="str">
         <v>1</v>
@@ -428,10 +428,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C3" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="str">
         <v>1</v>
@@ -448,10 +448,10 @@
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" t="str">
         <v>1</v>
